--- a/students.xlsx
+++ b/students.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>202141</v>
+        <v>207141</v>
       </c>
       <c r="B21">
         <v>101</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>202142</v>
+        <v>207142</v>
       </c>
       <c r="B22">
         <v>101</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>202143</v>
+        <v>209149</v>
       </c>
       <c r="B23">
         <v>101</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>202144</v>
+        <v>209194</v>
       </c>
       <c r="B24">
         <v>101</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,9 +409,6 @@
       <c r="B5">
         <v>101</v>
       </c>
-      <c r="C5">
-        <v>275</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -541,9 +538,6 @@
       <c r="B17">
         <v>101</v>
       </c>
-      <c r="C17">
-        <v>275</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -562,9 +556,6 @@
       </c>
       <c r="B19">
         <v>101</v>
-      </c>
-      <c r="C19">
-        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
